--- a/e_shape_linux/Output/Model_output/DNP_2020_2021_v2_Interdependency_analysis.xlsx
+++ b/e_shape_linux/Output/Model_output/DNP_2020_2021_v2_Interdependency_analysis.xlsx
@@ -495,19 +495,19 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3.359910236910582</v>
+        <v>3.359910223925197</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3338261625886104</v>
+        <v>0.3338261648435939</v>
       </c>
       <c r="G2" t="n">
-        <v>2.532613911063293e-147</v>
+        <v>2.532612005922455e-147</v>
       </c>
       <c r="H2" t="n">
-        <v>2.688506666836918e-09</v>
+        <v>2.688505724743342e-09</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9326869794667032</v>
+        <v>0.9326869798749379</v>
       </c>
     </row>
     <row r="3">
@@ -530,19 +530,19 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.3384979406059543</v>
+        <v>0.3384979384312595</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.8660740682046943</v>
+        <v>-0.8660740522000901</v>
       </c>
       <c r="G3" t="n">
-        <v>1.477175156467038e-136</v>
+        <v>1.477175747093203e-136</v>
       </c>
       <c r="H3" t="n">
-        <v>4.793356607141608e-24</v>
+        <v>4.793363494806504e-24</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9177960637317463</v>
+        <v>0.917796063466778</v>
       </c>
     </row>
     <row r="4">
@@ -565,19 +565,19 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3.534566313463314</v>
+        <v>3.534566301563167</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2167865484375792</v>
+        <v>0.2167865501156483</v>
       </c>
       <c r="G4" t="n">
-        <v>6.434152571171821e-143</v>
+        <v>6.434144040698615e-143</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0002185780782764838</v>
+        <v>0.0002185780361021304</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9269513932451307</v>
+        <v>0.9269513940259253</v>
       </c>
     </row>
     <row r="5">
@@ -600,19 +600,19 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.3011029100622042</v>
+        <v>0.3011029082479185</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.562644176573744</v>
+        <v>-0.5626441638815114</v>
       </c>
       <c r="G5" t="n">
-        <v>3.477090621204936e-123</v>
+        <v>3.477090916008923e-123</v>
       </c>
       <c r="H5" t="n">
-        <v>6.869228441495173e-11</v>
+        <v>6.869234014981215e-11</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8946377049526324</v>
+        <v>0.8946377048806259</v>
       </c>
     </row>
     <row r="6">
@@ -635,19 +635,19 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.005820063628736668</v>
+        <v>0.005820063587215185</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.8935621172972545</v>
+        <v>-0.8935620991774484</v>
       </c>
       <c r="G6" t="n">
-        <v>6.248846522751563e-131</v>
+        <v>6.248851569251221e-131</v>
       </c>
       <c r="H6" t="n">
-        <v>1.896450055895173e-23</v>
+        <v>1.896453212874861e-23</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9113862144413862</v>
+        <v>0.9113862138574251</v>
       </c>
     </row>
     <row r="7">
@@ -670,19 +670,19 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>9.781790084086236</v>
+        <v>9.781790117728587</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1775264078721198</v>
+        <v>0.1775264059659575</v>
       </c>
       <c r="G7" t="n">
-        <v>1.81092090585206e-146</v>
+        <v>1.810922940827058e-146</v>
       </c>
       <c r="H7" t="n">
-        <v>0.001814223688078245</v>
+        <v>0.001814223985982497</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9316109081232871</v>
+        <v>0.9316109075037068</v>
       </c>
     </row>
     <row r="8">
@@ -705,19 +705,19 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1.043909787075369</v>
+        <v>1.043909793018641</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.484822103712742</v>
+        <v>-1.484822109283789</v>
       </c>
       <c r="G8" t="n">
-        <v>2.17775361291138e-133</v>
+        <v>2.17774839077389e-133</v>
       </c>
       <c r="H8" t="n">
-        <v>3.899585651563174e-42</v>
+        <v>3.899578985811935e-42</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9128161170483431</v>
+        <v>0.912816118733689</v>
       </c>
     </row>
     <row r="9">
@@ -740,19 +740,19 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>10.31895957296487</v>
+        <v>10.31895960336881</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02859898209971782</v>
+        <v>0.02859898123531925</v>
       </c>
       <c r="G9" t="n">
-        <v>5.685833746471207e-140</v>
+        <v>5.685842455074996e-140</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6441087774681593</v>
+        <v>0.644108789666607</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9228448827621174</v>
+        <v>0.9228448818094266</v>
       </c>
     </row>
     <row r="10">
@@ -775,19 +775,19 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.9018336185938463</v>
+        <v>0.9018336240166613</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.007697694637498</v>
+        <v>-1.007697701003682</v>
       </c>
       <c r="G10" t="n">
-        <v>5.601310243567737e-115</v>
+        <v>5.601300354050637e-115</v>
       </c>
       <c r="H10" t="n">
-        <v>7.401021537255528e-21</v>
+        <v>7.401014437872469e-21</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8773020400639155</v>
+        <v>0.8773020418099752</v>
       </c>
     </row>
     <row r="11">
@@ -810,19 +810,19 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.01796641160450966</v>
+        <v>0.01796641169003797</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.521799110385304</v>
+        <v>-1.521799114423193</v>
       </c>
       <c r="G11" t="n">
-        <v>4.453427782729064e-127</v>
+        <v>4.453422957967665e-127</v>
       </c>
       <c r="H11" t="n">
-        <v>2.987365458090046e-40</v>
+        <v>2.987362944861999e-40</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9047334102956311</v>
+        <v>0.9047334111378024</v>
       </c>
     </row>
     <row r="12">
@@ -845,19 +845,19 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>11.89083576097236</v>
+        <v>11.89083577399053</v>
       </c>
       <c r="F12" t="n">
-        <v>0.05226684340911085</v>
+        <v>0.05226684103198879</v>
       </c>
       <c r="G12" t="n">
-        <v>1.297910401216941e-120</v>
+        <v>1.297909837767751e-120</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4825095568985538</v>
+        <v>0.4825095762024713</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8894859827076591</v>
+        <v>0.8894859830943735</v>
       </c>
     </row>
     <row r="13">
@@ -880,19 +880,19 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1.212813324583907</v>
+        <v>1.212813329773614</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.611210195316072</v>
+        <v>-1.611210211410237</v>
       </c>
       <c r="G13" t="n">
-        <v>4.685675914435576e-87</v>
+        <v>4.685669862471223e-87</v>
       </c>
       <c r="H13" t="n">
-        <v>9.757175537249419e-23</v>
+        <v>9.7571651919276e-23</v>
       </c>
       <c r="I13" t="n">
-        <v>0.7940102397019856</v>
+        <v>0.7940102418453622</v>
       </c>
     </row>
     <row r="14">
@@ -915,19 +915,19 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>12.62838019996796</v>
+        <v>12.62838020597535</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1308395027357631</v>
+        <v>-0.1308395041963618</v>
       </c>
       <c r="G14" t="n">
-        <v>6.531865486591211e-117</v>
+        <v>6.531866217174869e-117</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1039268056607441</v>
+        <v>0.103926802094092</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8816263254457452</v>
+        <v>0.8816263253390275</v>
       </c>
     </row>
     <row r="15">
@@ -950,19 +950,19 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.9921110039268617</v>
+        <v>0.9921110089117642</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.9386379866795092</v>
+        <v>-0.9386380015059866</v>
       </c>
       <c r="G15" t="n">
-        <v>1.350399794518637e-73</v>
+        <v>1.350398203506809e-73</v>
       </c>
       <c r="H15" t="n">
-        <v>2.119503103248146e-09</v>
+        <v>2.119501752338158e-09</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7356014262278312</v>
+        <v>0.7356014287364028</v>
       </c>
     </row>
     <row r="16">
@@ -985,19 +985,19 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.1466680850134487</v>
+        <v>0.1466680850556921</v>
       </c>
       <c r="F16" t="n">
-        <v>-3.860544717581856</v>
+        <v>-3.860544719193098</v>
       </c>
       <c r="G16" t="n">
-        <v>2.330879292821078e-106</v>
+        <v>2.330880383829818e-106</v>
       </c>
       <c r="H16" t="n">
-        <v>2.028439883840597e-61</v>
+        <v>2.02844055215903e-61</v>
       </c>
       <c r="I16" t="n">
-        <v>0.8594005572617831</v>
+        <v>0.8594005567249133</v>
       </c>
     </row>
     <row r="17">
@@ -1020,19 +1020,19 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>11.0578345099395</v>
+        <v>11.0578344997937</v>
       </c>
       <c r="F17" t="n">
-        <v>0.06453009986199651</v>
+        <v>0.06453010585500396</v>
       </c>
       <c r="G17" t="n">
-        <v>5.186629491787705e-119</v>
+        <v>5.186624002590177e-119</v>
       </c>
       <c r="H17" t="n">
-        <v>0.3922843849587019</v>
+        <v>0.392284338305748</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8861515023680778</v>
+        <v>0.8861515033392726</v>
       </c>
     </row>
     <row r="18">
@@ -1055,19 +1055,19 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1.11578934135526</v>
+        <v>1.115789341454923</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.528625791061245</v>
+        <v>-1.528625782458046</v>
       </c>
       <c r="G18" t="n">
-        <v>9.380559700264473e-86</v>
+        <v>9.380540302389306e-86</v>
       </c>
       <c r="H18" t="n">
-        <v>5.278720229505568e-21</v>
+        <v>5.278717824287482e-21</v>
       </c>
       <c r="I18" t="n">
-        <v>0.7889767902313553</v>
+        <v>0.7889767937467251</v>
       </c>
     </row>
     <row r="19">
@@ -1090,19 +1090,19 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>11.7190603129804</v>
+        <v>11.71906031353874</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.1112591801357732</v>
+        <v>-0.1112591750810396</v>
       </c>
       <c r="G19" t="n">
-        <v>7.022115038479529e-115</v>
+        <v>7.022099962177956e-115</v>
       </c>
       <c r="H19" t="n">
-        <v>0.173255452951564</v>
+        <v>0.1732554679590487</v>
       </c>
       <c r="I19" t="n">
-        <v>0.877078271151706</v>
+        <v>0.8770782732788216</v>
       </c>
     </row>
     <row r="20">
@@ -1125,19 +1125,19 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.9134855668750926</v>
+        <v>0.9134855665081293</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.8760772352099622</v>
+        <v>-0.8760772268954625</v>
       </c>
       <c r="G20" t="n">
-        <v>1.686565544523215e-72</v>
+        <v>1.68656356664e-72</v>
       </c>
       <c r="H20" t="n">
-        <v>1.938111968014066e-08</v>
+        <v>1.938112071580289e-08</v>
       </c>
       <c r="I20" t="n">
-        <v>0.7301705529261835</v>
+        <v>0.7301705554743367</v>
       </c>
     </row>
     <row r="21">
@@ -1160,19 +1160,19 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.1354178846129147</v>
+        <v>0.1354178847754417</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.728254381526392</v>
+        <v>-3.728254373802819</v>
       </c>
       <c r="G21" t="n">
-        <v>1.211042716689417e-107</v>
+        <v>1.211037172235339e-107</v>
       </c>
       <c r="H21" t="n">
-        <v>2.961619766416083e-61</v>
+        <v>2.961609842733902e-61</v>
       </c>
       <c r="I21" t="n">
-        <v>0.8627520519672784</v>
+        <v>0.8627520570934226</v>
       </c>
     </row>
     <row r="22">
@@ -1195,19 +1195,19 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>4.577232216164789</v>
+        <v>4.577232220320457</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.05093387788206831</v>
+        <v>-0.05093388132955559</v>
       </c>
       <c r="G22" t="n">
-        <v>1.838270741653474e-112</v>
+        <v>1.838268656979879e-112</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5369647613831038</v>
+        <v>0.5369647321449018</v>
       </c>
       <c r="I22" t="n">
-        <v>0.8714367060600279</v>
+        <v>0.8714367072351094</v>
       </c>
     </row>
     <row r="23">
@@ -1230,19 +1230,19 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.5670425432858945</v>
+        <v>0.5670425437040039</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.847109903605007</v>
+        <v>-2.847109911669456</v>
       </c>
       <c r="G23" t="n">
-        <v>2.052634406909131e-103</v>
+        <v>2.05263283246434e-103</v>
       </c>
       <c r="H23" t="n">
-        <v>1.560800221519991e-48</v>
+        <v>1.560799074942344e-48</v>
       </c>
       <c r="I23" t="n">
-        <v>0.8479324648774165</v>
+        <v>0.8479324658173999</v>
       </c>
     </row>
     <row r="24">
@@ -1265,19 +1265,19 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>5.726455651432788</v>
+        <v>5.72645566244022</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.4161308277888739</v>
+        <v>-0.4161308344372873</v>
       </c>
       <c r="G24" t="n">
-        <v>5.384749026281356e-114</v>
+        <v>5.384738519164318e-114</v>
       </c>
       <c r="H24" t="n">
-        <v>3.528993197044721e-06</v>
+        <v>3.528991445442478e-06</v>
       </c>
       <c r="I24" t="n">
-        <v>0.8750433749898302</v>
+        <v>0.8750433769550379</v>
       </c>
     </row>
     <row r="25">
@@ -1300,19 +1300,19 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.4963562623967703</v>
+        <v>0.4963562633634928</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.194001770508812</v>
+        <v>-2.194001782807841</v>
       </c>
       <c r="G25" t="n">
-        <v>1.739708351876915e-106</v>
+        <v>1.739705981071631e-106</v>
       </c>
       <c r="H25" t="n">
-        <v>1.843055148948181e-41</v>
+        <v>1.843052834247745e-41</v>
       </c>
       <c r="I25" t="n">
-        <v>0.8563582142397287</v>
+        <v>0.856358215817296</v>
       </c>
     </row>
     <row r="26">
@@ -1335,19 +1335,19 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.009437405636770563</v>
+        <v>0.009437405657030915</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.759506664588752</v>
+        <v>-2.759506678003102</v>
       </c>
       <c r="G26" t="n">
-        <v>4.131153370336675e-91</v>
+        <v>4.131149439411398e-91</v>
       </c>
       <c r="H26" t="n">
-        <v>4.080925195503993e-40</v>
+        <v>4.080921440086467e-40</v>
       </c>
       <c r="I26" t="n">
-        <v>0.8127750829476966</v>
+        <v>0.8127750844006345</v>
       </c>
     </row>
     <row r="27">
@@ -1370,19 +1370,19 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>4.24384520674889</v>
+        <v>4.24384521936103</v>
       </c>
       <c r="F27" t="n">
-        <v>1.252587363277732</v>
+        <v>1.252587363821429</v>
       </c>
       <c r="G27" t="n">
-        <v>3.574521254163362e-93</v>
+        <v>3.574522849571174e-93</v>
       </c>
       <c r="H27" t="n">
-        <v>1.055507620871068e-41</v>
+        <v>1.055507806251668e-41</v>
       </c>
       <c r="I27" t="n">
-        <v>0.8161099987013825</v>
+        <v>0.8161099980400803</v>
       </c>
     </row>
     <row r="28">
@@ -1405,19 +1405,19 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.2246941861826204</v>
+        <v>0.2246941863805736</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9859675355055971</v>
+        <v>0.9859675374601337</v>
       </c>
       <c r="G28" t="n">
-        <v>9.579912848984099e-40</v>
+        <v>9.579916658216121e-40</v>
       </c>
       <c r="H28" t="n">
-        <v>3.730935502376633e-11</v>
+        <v>3.730935454860527e-11</v>
       </c>
       <c r="I28" t="n">
-        <v>0.5050057435549481</v>
+        <v>0.5050057419738174</v>
       </c>
     </row>
     <row r="29">
@@ -1440,19 +1440,19 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>3.651429552495048</v>
+        <v>3.651429568008363</v>
       </c>
       <c r="F29" t="n">
-        <v>1.286501916881056</v>
+        <v>1.286501917128816</v>
       </c>
       <c r="G29" t="n">
-        <v>2.444775705101294e-88</v>
+        <v>2.444775806227282e-88</v>
       </c>
       <c r="H29" t="n">
-        <v>6.598707524278202e-41</v>
+        <v>6.59870747147255e-41</v>
       </c>
       <c r="I29" t="n">
-        <v>0.798853183</v>
+        <v>0.7988531829329696</v>
       </c>
     </row>
     <row r="30">
@@ -1475,19 +1475,19 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.2310021411274127</v>
+        <v>0.2310021413765432</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9546901785675165</v>
+        <v>0.9546901803809831</v>
       </c>
       <c r="G30" t="n">
-        <v>5.561986285814789e-46</v>
+        <v>5.561988513160643e-46</v>
       </c>
       <c r="H30" t="n">
-        <v>7.934637215808152e-12</v>
+        <v>7.934637118496398e-12</v>
       </c>
       <c r="I30" t="n">
-        <v>0.5589540030173139</v>
+        <v>0.558954001597408</v>
       </c>
     </row>
     <row r="31">
@@ -1510,19 +1510,19 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.003743561962601397</v>
+        <v>0.003743561961862493</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9729073726258186</v>
+        <v>0.9729073757879692</v>
       </c>
       <c r="G31" t="n">
-        <v>1.211656836299012e-37</v>
+        <v>1.211657433432601e-37</v>
       </c>
       <c r="H31" t="n">
-        <v>1.696711620119147e-10</v>
+        <v>1.69671153463981e-10</v>
       </c>
       <c r="I31" t="n">
-        <v>0.4895604062892593</v>
+        <v>0.4895604042442965</v>
       </c>
     </row>
     <row r="32">
@@ -1545,19 +1545,19 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>3.503497630994976</v>
+        <v>3.503497625811094</v>
       </c>
       <c r="F32" t="n">
-        <v>2.206229159400504</v>
+        <v>2.206229157653412</v>
       </c>
       <c r="G32" t="n">
-        <v>1.043590191836105e-45</v>
+        <v>1.043590193179818e-45</v>
       </c>
       <c r="H32" t="n">
-        <v>1.273514864885146e-56</v>
+        <v>1.273515046159148e-56</v>
       </c>
       <c r="I32" t="n">
-        <v>0.5567170835750783</v>
+        <v>0.556717083570491</v>
       </c>
     </row>
     <row r="33">
@@ -1580,19 +1580,19 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.29742354285071</v>
+        <v>0.2974235416575826</v>
       </c>
       <c r="F33" t="n">
-        <v>1.916577025224372</v>
+        <v>1.916577023974952</v>
       </c>
       <c r="G33" t="n">
-        <v>2.165226571540504e-28</v>
+        <v>2.165227030236179e-28</v>
       </c>
       <c r="H33" t="n">
-        <v>4.515366185767219e-36</v>
+        <v>4.51536716611283e-36</v>
       </c>
       <c r="I33" t="n">
-        <v>0.3894533586103389</v>
+        <v>0.38945335757368</v>
       </c>
     </row>
     <row r="34">
@@ -1615,19 +1615,19 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>3.435317462108309</v>
+        <v>3.435317454328601</v>
       </c>
       <c r="F34" t="n">
-        <v>2.084134096706705</v>
+        <v>2.084134094627105</v>
       </c>
       <c r="G34" t="n">
-        <v>2.270772423760533e-47</v>
+        <v>2.270772701506485e-47</v>
       </c>
       <c r="H34" t="n">
-        <v>3.199607397541454e-53</v>
+        <v>3.19960822112575e-53</v>
       </c>
       <c r="I34" t="n">
-        <v>0.5701508566278461</v>
+        <v>0.5701508562051103</v>
       </c>
     </row>
     <row r="35">
@@ -1650,19 +1650,19 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.2081767974159424</v>
+        <v>0.2081767965183424</v>
       </c>
       <c r="F35" t="n">
-        <v>1.923299309841131</v>
+        <v>1.923299308604781</v>
       </c>
       <c r="G35" t="n">
-        <v>1.182769930698362e-29</v>
+        <v>1.182770220589882e-29</v>
       </c>
       <c r="H35" t="n">
-        <v>5.41320860221299e-37</v>
+        <v>5.413209874563256e-37</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4035178218916695</v>
+        <v>0.4035178207195293</v>
       </c>
     </row>
     <row r="36">
@@ -1685,19 +1685,19 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.003512034751040841</v>
+        <v>0.003512034734817172</v>
       </c>
       <c r="F36" t="n">
-        <v>1.86925558279892</v>
+        <v>1.869255581677991</v>
       </c>
       <c r="G36" t="n">
-        <v>9.310432650158258e-28</v>
+        <v>9.310435082717124e-28</v>
       </c>
       <c r="H36" t="n">
-        <v>5.041764335170069e-34</v>
+        <v>5.041765485113161e-34</v>
       </c>
       <c r="I36" t="n">
-        <v>0.3859142377132321</v>
+        <v>0.3859142364117701</v>
       </c>
     </row>
     <row r="37">
@@ -1720,19 +1720,19 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>3.252589085590589</v>
+        <v>3.252589081067533</v>
       </c>
       <c r="F37" t="n">
-        <v>4.160369732298621</v>
+        <v>4.16036973153283</v>
       </c>
       <c r="G37" t="n">
-        <v>4.385168704989198e-33</v>
+        <v>4.385169331901272e-33</v>
       </c>
       <c r="H37" t="n">
-        <v>4.648325474377874e-67</v>
+        <v>4.648326214277455e-67</v>
       </c>
       <c r="I37" t="n">
-        <v>0.4401416831302339</v>
+        <v>0.4401416824879982</v>
       </c>
     </row>
     <row r="38">
@@ -1755,19 +1755,19 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.1422793189682713</v>
+        <v>0.1422793173292263</v>
       </c>
       <c r="F38" t="n">
-        <v>3.104914816878608</v>
+        <v>3.104914810463393</v>
       </c>
       <c r="G38" t="n">
-        <v>7.506657641162926e-05</v>
+        <v>7.506658651007571e-05</v>
       </c>
       <c r="H38" t="n">
-        <v>2.773370464130165e-31</v>
+        <v>2.773370998551535e-31</v>
       </c>
       <c r="I38" t="n">
-        <v>0.06138255948041442</v>
+        <v>0.06138255851552245</v>
       </c>
     </row>
     <row r="39">
@@ -1790,19 +1790,19 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>3.153309765222658</v>
+        <v>3.153309756577929</v>
       </c>
       <c r="F39" t="n">
-        <v>4.120152033107842</v>
+        <v>4.120152030345771</v>
       </c>
       <c r="G39" t="n">
-        <v>2.233665294641911e-27</v>
+        <v>2.233665803602204e-27</v>
       </c>
       <c r="H39" t="n">
-        <v>2.417700177906277e-60</v>
+        <v>2.417700783394206e-60</v>
       </c>
       <c r="I39" t="n">
-        <v>0.3779277779817345</v>
+        <v>0.3779277768460163</v>
       </c>
     </row>
     <row r="40">
@@ -1825,19 +1825,19 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.06026094441162975</v>
+        <v>0.06026094351928035</v>
       </c>
       <c r="F40" t="n">
-        <v>2.830184741654134</v>
+        <v>2.830184736212534</v>
       </c>
       <c r="G40" t="n">
-        <v>0.01105246931937901</v>
+        <v>0.011052470302123</v>
       </c>
       <c r="H40" t="n">
-        <v>5.500970572271644e-28</v>
+        <v>5.50097154298848e-28</v>
       </c>
       <c r="I40" t="n">
-        <v>0.02575080531297833</v>
+        <v>0.02575080469107784</v>
       </c>
     </row>
     <row r="41">
@@ -1860,19 +1860,19 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.01427106382113477</v>
+        <v>0.01427106372273869</v>
       </c>
       <c r="F41" t="n">
-        <v>3.731788936984567</v>
+        <v>3.731788929892642</v>
       </c>
       <c r="G41" t="n">
-        <v>5.55268181001867e-13</v>
+        <v>5.552683499021396e-13</v>
       </c>
       <c r="H41" t="n">
-        <v>3.05618437767723e-41</v>
+        <v>3.056185582799915e-41</v>
       </c>
       <c r="I41" t="n">
-        <v>0.1915747019777849</v>
+        <v>0.1915747000030802</v>
       </c>
     </row>
   </sheetData>
